--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd28-Cd86.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd28-Cd86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>Cd86</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +549,40 @@
         <v>0.100457</v>
       </c>
       <c r="I2">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="J2">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>72.81203866666668</v>
+        <v>0.443766</v>
       </c>
       <c r="N2">
-        <v>218.436116</v>
+        <v>0.887532</v>
       </c>
       <c r="O2">
-        <v>0.4212248541800226</v>
+        <v>0.002449151460739373</v>
       </c>
       <c r="P2">
-        <v>0.4212389216426637</v>
+        <v>0.001634553646226108</v>
       </c>
       <c r="Q2">
-        <v>2.438159656112445</v>
+        <v>0.014859800354</v>
       </c>
       <c r="R2">
-        <v>21.943436905012</v>
+        <v>0.089158802124</v>
       </c>
       <c r="S2">
-        <v>0.0013399771133907</v>
+        <v>1.249306830904327E-05</v>
       </c>
       <c r="T2">
-        <v>0.001342433376833645</v>
+        <v>8.381705115474001E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,40 +611,40 @@
         <v>0.100457</v>
       </c>
       <c r="I3">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="J3">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.017318</v>
+        <v>116.091339</v>
       </c>
       <c r="N3">
-        <v>0.034636</v>
+        <v>348.274017</v>
       </c>
       <c r="O3">
-        <v>0.0001001863449818385</v>
+        <v>0.6407099067775354</v>
       </c>
       <c r="P3">
-        <v>6.679312724098838E-05</v>
+        <v>0.6414107484272832</v>
       </c>
       <c r="Q3">
-        <v>0.0005799047753333334</v>
+        <v>3.887395880641</v>
       </c>
       <c r="R3">
-        <v>0.003479428652</v>
+        <v>34.986562925769</v>
       </c>
       <c r="S3">
-        <v>3.187072368064831E-07</v>
+        <v>0.003268247292977152</v>
       </c>
       <c r="T3">
-        <v>2.128609649880889E-07</v>
+        <v>0.003289042096370135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +673,40 @@
         <v>0.100457</v>
       </c>
       <c r="I4">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="J4">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.121933</v>
+        <v>0.150175</v>
       </c>
       <c r="N4">
-        <v>0.365799</v>
+        <v>0.30035</v>
       </c>
       <c r="O4">
-        <v>0.0007053944798862752</v>
+        <v>0.0008288181623119739</v>
       </c>
       <c r="P4">
-        <v>0.0007054180376379001</v>
+        <v>0.0005531498443368933</v>
       </c>
       <c r="Q4">
-        <v>0.004083007793666668</v>
+        <v>0.005028709991666667</v>
       </c>
       <c r="R4">
-        <v>0.03674707014300001</v>
+        <v>0.03017225995</v>
       </c>
       <c r="S4">
-        <v>2.243961745324224E-06</v>
+        <v>4.227783411326178E-06</v>
       </c>
       <c r="T4">
-        <v>2.248075070206661E-06</v>
+        <v>2.83645562236924E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -732,10 +735,10 @@
         <v>0.100457</v>
       </c>
       <c r="I5">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="J5">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,60 +747,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.90659833333332</v>
+        <v>23.12626833333333</v>
       </c>
       <c r="N5">
-        <v>299.719795</v>
+        <v>69.378805</v>
       </c>
       <c r="O5">
-        <v>0.5779695649951093</v>
+        <v>0.1276342348671012</v>
       </c>
       <c r="P5">
-        <v>0.5779888671924573</v>
+        <v>0.1277738477976683</v>
       </c>
       <c r="Q5">
-        <v>3.345439049590555</v>
+        <v>0.7743985126538889</v>
       </c>
       <c r="R5">
-        <v>30.108951446315</v>
+        <v>6.969586613885</v>
       </c>
       <c r="S5">
-        <v>0.00183860468261646</v>
+        <v>0.0006510594548063565</v>
       </c>
       <c r="T5">
-        <v>0.001841974962170348</v>
+        <v>0.0006552019361262166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.687095</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H6">
-        <v>14.061285</v>
+        <v>0.100457</v>
       </c>
       <c r="I6">
-        <v>0.4452748832673376</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="J6">
-        <v>0.446076203092561</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.81203866666668</v>
+        <v>41.38018566666666</v>
       </c>
       <c r="N6">
-        <v>218.436116</v>
+        <v>124.140557</v>
       </c>
       <c r="O6">
-        <v>0.4212248541800226</v>
+        <v>0.2283778887323119</v>
       </c>
       <c r="P6">
-        <v>0.4212389216426637</v>
+        <v>0.2286277002844855</v>
       </c>
       <c r="Q6">
-        <v>341.2769423743401</v>
+        <v>1.385643103838778</v>
       </c>
       <c r="R6">
-        <v>3071.49248136906</v>
+        <v>12.470787934549</v>
       </c>
       <c r="S6">
-        <v>0.1875608477743108</v>
+        <v>0.001164950641046317</v>
       </c>
       <c r="T6">
-        <v>0.1879046587611642</v>
+        <v>0.001172362846235056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="H7">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="I7">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="J7">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.017318</v>
+        <v>0.443766</v>
       </c>
       <c r="N7">
-        <v>0.034636</v>
+        <v>0.887532</v>
       </c>
       <c r="O7">
-        <v>0.0001001863449818385</v>
+        <v>0.002449151460739373</v>
       </c>
       <c r="P7">
-        <v>6.679312724098838E-05</v>
+        <v>0.001634553646226108</v>
       </c>
       <c r="Q7">
-        <v>0.08117111121000001</v>
+        <v>1.032506062462</v>
       </c>
       <c r="R7">
-        <v>0.48702666726</v>
+        <v>6.195036374771999</v>
       </c>
       <c r="S7">
-        <v>4.461046306676934E-05</v>
+        <v>0.0008680580129306265</v>
       </c>
       <c r="T7">
-        <v>2.97948245923384E-05</v>
+        <v>0.0005823874573904429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="H8">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="I8">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="J8">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.121933</v>
+        <v>116.091339</v>
       </c>
       <c r="N8">
-        <v>0.365799</v>
+        <v>348.274017</v>
       </c>
       <c r="O8">
-        <v>0.0007053944798862752</v>
+        <v>0.6407099067775354</v>
       </c>
       <c r="P8">
-        <v>0.0007054180376379001</v>
+        <v>0.6414107484272832</v>
       </c>
       <c r="Q8">
-        <v>0.5715115546350001</v>
+        <v>270.108596235023</v>
       </c>
       <c r="R8">
-        <v>5.143603991715</v>
+        <v>2430.977366115207</v>
       </c>
       <c r="S8">
-        <v>0.0003140944446887855</v>
+        <v>0.2270881884840112</v>
       </c>
       <c r="T8">
-        <v>0.0003146701998225198</v>
+        <v>0.228533077382884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,78 +977,78 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="H9">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="I9">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="J9">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>99.90659833333332</v>
+        <v>0.150175</v>
       </c>
       <c r="N9">
-        <v>299.719795</v>
+        <v>0.30035</v>
       </c>
       <c r="O9">
-        <v>0.5779695649951093</v>
+        <v>0.0008288181623119739</v>
       </c>
       <c r="P9">
-        <v>0.5779888671924573</v>
+        <v>0.0005531498443368933</v>
       </c>
       <c r="Q9">
-        <v>468.2717175151749</v>
+        <v>0.3494107208083333</v>
       </c>
       <c r="R9">
-        <v>4214.445457636574</v>
+        <v>2.09646432485</v>
       </c>
       <c r="S9">
-        <v>0.2573553305852712</v>
+        <v>0.0002937598015437344</v>
       </c>
       <c r="T9">
-        <v>0.2578270793069818</v>
+        <v>0.000197085933608275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0567275</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="H10">
-        <v>0.113455</v>
+        <v>6.980071</v>
       </c>
       <c r="I10">
-        <v>0.005389122887534366</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="J10">
-        <v>0.00359921412743334</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1057,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.81203866666668</v>
+        <v>23.12626833333333</v>
       </c>
       <c r="N10">
-        <v>218.436116</v>
+        <v>69.378805</v>
       </c>
       <c r="O10">
-        <v>0.4212248541800226</v>
+        <v>0.1276342348671012</v>
       </c>
       <c r="P10">
-        <v>0.4212389216426637</v>
+        <v>0.1277738477976683</v>
       </c>
       <c r="Q10">
-        <v>4.130444923463334</v>
+        <v>53.80766497723943</v>
       </c>
       <c r="R10">
-        <v>24.78266954078</v>
+        <v>484.2689847951549</v>
       </c>
       <c r="S10">
-        <v>0.002270032502459886</v>
+        <v>0.04523767601829299</v>
       </c>
       <c r="T10">
-        <v>0.001516129077801061</v>
+        <v>0.04552550875995158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0567275</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="H11">
-        <v>0.113455</v>
+        <v>6.980071</v>
       </c>
       <c r="I11">
-        <v>0.005389122887534366</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="J11">
-        <v>0.00359921412743334</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.017318</v>
+        <v>41.38018566666666</v>
       </c>
       <c r="N11">
-        <v>0.034636</v>
+        <v>124.140557</v>
       </c>
       <c r="O11">
-        <v>0.0001001863449818385</v>
+        <v>0.2283778887323119</v>
       </c>
       <c r="P11">
-        <v>6.679312724098838E-05</v>
+        <v>0.2286277002844855</v>
       </c>
       <c r="Q11">
-        <v>0.000982406845</v>
+        <v>96.27887798217186</v>
       </c>
       <c r="R11">
-        <v>0.00392962738</v>
+        <v>866.5099018395468</v>
       </c>
       <c r="S11">
-        <v>5.399165247600395E-07</v>
+        <v>0.08094446565195859</v>
       </c>
       <c r="T11">
-        <v>2.40402767181218E-07</v>
+        <v>0.08145948917927842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1031065</v>
+      </c>
+      <c r="H12">
+        <v>0.206213</v>
+      </c>
+      <c r="I12">
+        <v>0.01570654149415039</v>
+      </c>
+      <c r="J12">
+        <v>0.01052613740071944</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.5</v>
       </c>
-      <c r="G12">
-        <v>0.0567275</v>
-      </c>
-      <c r="H12">
-        <v>0.113455</v>
-      </c>
-      <c r="I12">
-        <v>0.005389122887534366</v>
-      </c>
-      <c r="J12">
-        <v>0.00359921412743334</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M12">
-        <v>0.121933</v>
+        <v>0.443766</v>
       </c>
       <c r="N12">
-        <v>0.365799</v>
+        <v>0.887532</v>
       </c>
       <c r="O12">
-        <v>0.0007053944798862752</v>
+        <v>0.002449151460739373</v>
       </c>
       <c r="P12">
-        <v>0.0007054180376379001</v>
+        <v>0.001634553646226108</v>
       </c>
       <c r="Q12">
-        <v>0.006916954257500001</v>
+        <v>0.045755159079</v>
       </c>
       <c r="R12">
-        <v>0.04150172554500001</v>
+        <v>0.183020636316</v>
       </c>
       <c r="S12">
-        <v>3.801457536295526E-06</v>
+        <v>3.846769904356201E-05</v>
       </c>
       <c r="T12">
-        <v>2.538950566812633E-06</v>
+        <v>1.720553626902296E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0567275</v>
+        <v>0.1031065</v>
       </c>
       <c r="H13">
-        <v>0.113455</v>
+        <v>0.206213</v>
       </c>
       <c r="I13">
-        <v>0.005389122887534366</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="J13">
-        <v>0.00359921412743334</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,214 +1243,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.90659833333332</v>
+        <v>116.091339</v>
       </c>
       <c r="N13">
-        <v>299.719795</v>
+        <v>348.274017</v>
       </c>
       <c r="O13">
-        <v>0.5779695649951093</v>
+        <v>0.6407099067775354</v>
       </c>
       <c r="P13">
-        <v>0.5779888671924573</v>
+        <v>0.6414107484272832</v>
       </c>
       <c r="Q13">
-        <v>5.667451556954166</v>
+        <v>11.9697716446035</v>
       </c>
       <c r="R13">
-        <v>34.004709341725</v>
+        <v>71.81862986762098</v>
       </c>
       <c r="S13">
-        <v>0.003114749011013425</v>
+        <v>0.01006333673651459</v>
       </c>
       <c r="T13">
-        <v>0.002080305696298285</v>
+        <v>0.006751577668243871</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.748987333333333</v>
+        <v>0.1031065</v>
       </c>
       <c r="H14">
-        <v>17.246962</v>
+        <v>0.206213</v>
       </c>
       <c r="I14">
-        <v>0.5461548493801388</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="J14">
-        <v>0.5471377135049664</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>72.81203866666668</v>
+        <v>0.150175</v>
       </c>
       <c r="N14">
-        <v>218.436116</v>
+        <v>0.30035</v>
       </c>
       <c r="O14">
-        <v>0.4212248541800226</v>
+        <v>0.0008288181623119739</v>
       </c>
       <c r="P14">
-        <v>0.4212389216426637</v>
+        <v>0.0005531498443368933</v>
       </c>
       <c r="Q14">
-        <v>418.5954880088436</v>
+        <v>0.0154840186375</v>
       </c>
       <c r="R14">
-        <v>3767.359392079592</v>
+        <v>0.06193607455</v>
       </c>
       <c r="S14">
-        <v>0.2300539967898612</v>
+        <v>1.301786685745849E-05</v>
       </c>
       <c r="T14">
-        <v>0.2304757004268647</v>
+        <v>5.822531264676707E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.748987333333333</v>
+        <v>0.1031065</v>
       </c>
       <c r="H15">
-        <v>17.246962</v>
+        <v>0.206213</v>
       </c>
       <c r="I15">
-        <v>0.5461548493801388</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="J15">
-        <v>0.5471377135049664</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.017318</v>
+        <v>23.12626833333333</v>
       </c>
       <c r="N15">
-        <v>0.034636</v>
+        <v>69.378805</v>
       </c>
       <c r="O15">
-        <v>0.0001001863449818385</v>
+        <v>0.1276342348671012</v>
       </c>
       <c r="P15">
-        <v>6.679312724098838E-05</v>
+        <v>0.1277738477976683</v>
       </c>
       <c r="Q15">
-        <v>0.09956096263866666</v>
+        <v>2.384468585910833</v>
       </c>
       <c r="R15">
-        <v>0.597365775832</v>
+        <v>14.306811515465</v>
       </c>
       <c r="S15">
-        <v>5.471725815350262E-05</v>
+        <v>0.002004692406014262</v>
       </c>
       <c r="T15">
-        <v>3.654503891648067E-05</v>
+        <v>0.001344965078136869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.748987333333333</v>
+        <v>0.1031065</v>
       </c>
       <c r="H16">
-        <v>17.246962</v>
+        <v>0.206213</v>
       </c>
       <c r="I16">
-        <v>0.5461548493801388</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="J16">
-        <v>0.5471377135049664</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.121933</v>
+        <v>41.38018566666666</v>
       </c>
       <c r="N16">
-        <v>0.365799</v>
+        <v>124.140557</v>
       </c>
       <c r="O16">
-        <v>0.0007053944798862752</v>
+        <v>0.2283778887323119</v>
       </c>
       <c r="P16">
-        <v>0.0007054180376379001</v>
+        <v>0.2286277002844855</v>
       </c>
       <c r="Q16">
-        <v>0.7009912725153333</v>
+        <v>4.266566113440166</v>
       </c>
       <c r="R16">
-        <v>6.308921452638001</v>
+        <v>25.599396680641</v>
       </c>
       <c r="S16">
-        <v>0.00038525461591587</v>
+        <v>0.003587026785720519</v>
       </c>
       <c r="T16">
-        <v>0.000385960812178361</v>
+        <v>0.002406566586804997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.893441</v>
+      </c>
+      <c r="I17">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="J17">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.443766</v>
+      </c>
+      <c r="N17">
+        <v>0.887532</v>
+      </c>
+      <c r="O17">
+        <v>0.002449151460739373</v>
+      </c>
+      <c r="P17">
+        <v>0.001634553646226108</v>
+      </c>
+      <c r="Q17">
+        <v>0.575925579602</v>
+      </c>
+      <c r="R17">
+        <v>3.455553477612</v>
+      </c>
+      <c r="S17">
+        <v>0.0004841974613041374</v>
+      </c>
+      <c r="T17">
+        <v>0.0003248521690523927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.893441</v>
+      </c>
+      <c r="I18">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="J18">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>116.091339</v>
+      </c>
+      <c r="N18">
+        <v>348.274017</v>
+      </c>
+      <c r="O18">
+        <v>0.6407099067775354</v>
+      </c>
+      <c r="P18">
+        <v>0.6414107484272832</v>
+      </c>
+      <c r="Q18">
+        <v>150.664926335833</v>
+      </c>
+      <c r="R18">
+        <v>1355.984337022497</v>
+      </c>
+      <c r="S18">
+        <v>0.1266684054731503</v>
+      </c>
+      <c r="T18">
+        <v>0.1274743556818682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.893441</v>
+      </c>
+      <c r="I19">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="J19">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.150175</v>
+      </c>
+      <c r="N19">
+        <v>0.30035</v>
+      </c>
+      <c r="O19">
+        <v>0.0008288181623119739</v>
+      </c>
+      <c r="P19">
+        <v>0.0005531498443368933</v>
+      </c>
+      <c r="Q19">
+        <v>0.1948991673916667</v>
+      </c>
+      <c r="R19">
+        <v>1.16939500435</v>
+      </c>
+      <c r="S19">
+        <v>0.0001638574242987269</v>
+      </c>
+      <c r="T19">
+        <v>0.0001099333308262532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.893441</v>
+      </c>
+      <c r="I20">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="J20">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.12626833333333</v>
+      </c>
+      <c r="N20">
+        <v>69.378805</v>
+      </c>
+      <c r="O20">
+        <v>0.1276342348671012</v>
+      </c>
+      <c r="P20">
+        <v>0.1277738477976683</v>
+      </c>
+      <c r="Q20">
+        <v>30.01358710200055</v>
+      </c>
+      <c r="R20">
+        <v>270.122283918005</v>
+      </c>
+      <c r="S20">
+        <v>0.02523329956877783</v>
+      </c>
+      <c r="T20">
+        <v>0.02539385091524924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.893441</v>
+      </c>
+      <c r="I21">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="J21">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.38018566666666</v>
+      </c>
+      <c r="N21">
+        <v>124.140557</v>
+      </c>
+      <c r="O21">
+        <v>0.2283778887323119</v>
+      </c>
+      <c r="P21">
+        <v>0.2286277002844855</v>
+      </c>
+      <c r="Q21">
+        <v>53.70377048740411</v>
+      </c>
+      <c r="R21">
+        <v>483.3339343866369</v>
+      </c>
+      <c r="S21">
+        <v>0.04515032888525451</v>
+      </c>
+      <c r="T21">
+        <v>0.04543760586527831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="H22">
+        <v>8.410385</v>
+      </c>
+      <c r="I22">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="J22">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.443766</v>
+      </c>
+      <c r="N22">
+        <v>0.887532</v>
+      </c>
+      <c r="O22">
+        <v>0.002449151460739373</v>
+      </c>
+      <c r="P22">
+        <v>0.001634553646226108</v>
+      </c>
+      <c r="Q22">
+        <v>1.24408096997</v>
+      </c>
+      <c r="R22">
+        <v>7.464485819819999</v>
+      </c>
+      <c r="S22">
+        <v>0.001045935219152004</v>
+      </c>
+      <c r="T22">
+        <v>0.0007017267783987756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="H23">
+        <v>8.410385</v>
+      </c>
+      <c r="I23">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="J23">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>116.091339</v>
+      </c>
+      <c r="N23">
+        <v>348.274017</v>
+      </c>
+      <c r="O23">
+        <v>0.6407099067775354</v>
+      </c>
+      <c r="P23">
+        <v>0.6414107484272832</v>
+      </c>
+      <c r="Q23">
+        <v>325.457618718505</v>
+      </c>
+      <c r="R23">
+        <v>2929.118568466545</v>
+      </c>
+      <c r="S23">
+        <v>0.2736217287908821</v>
+      </c>
+      <c r="T23">
+        <v>0.2753626955979169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="H24">
+        <v>8.410385</v>
+      </c>
+      <c r="I24">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="J24">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0.150175</v>
+      </c>
+      <c r="N24">
+        <v>0.30035</v>
+      </c>
+      <c r="O24">
+        <v>0.0008288181623119739</v>
+      </c>
+      <c r="P24">
+        <v>0.0005531498443368933</v>
+      </c>
+      <c r="Q24">
+        <v>0.4210098557916667</v>
+      </c>
+      <c r="R24">
+        <v>2.52605913475</v>
+      </c>
+      <c r="S24">
+        <v>0.0003539552862007279</v>
+      </c>
+      <c r="T24">
+        <v>0.0002374715930153192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.748987333333333</v>
-      </c>
-      <c r="H17">
-        <v>17.246962</v>
-      </c>
-      <c r="I17">
-        <v>0.5461548493801388</v>
-      </c>
-      <c r="J17">
-        <v>0.5471377135049664</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>99.90659833333332</v>
-      </c>
-      <c r="N17">
-        <v>299.719795</v>
-      </c>
-      <c r="O17">
-        <v>0.5779695649951093</v>
-      </c>
-      <c r="P17">
-        <v>0.5779888671924573</v>
-      </c>
-      <c r="Q17">
-        <v>574.3617683347543</v>
-      </c>
-      <c r="R17">
-        <v>5169.25591501279</v>
-      </c>
-      <c r="S17">
-        <v>0.3156608807162083</v>
-      </c>
-      <c r="T17">
-        <v>0.3162395072270068</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="H25">
+        <v>8.410385</v>
+      </c>
+      <c r="I25">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="J25">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.12626833333333</v>
+      </c>
+      <c r="N25">
+        <v>69.378805</v>
+      </c>
+      <c r="O25">
+        <v>0.1276342348671012</v>
+      </c>
+      <c r="P25">
+        <v>0.1277738477976683</v>
+      </c>
+      <c r="Q25">
+        <v>64.83360676554722</v>
+      </c>
+      <c r="R25">
+        <v>583.502460889925</v>
+      </c>
+      <c r="S25">
+        <v>0.05450750741920979</v>
+      </c>
+      <c r="T25">
+        <v>0.0548543211082044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="H26">
+        <v>8.410385</v>
+      </c>
+      <c r="I26">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="J26">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>41.38018566666666</v>
+      </c>
+      <c r="N26">
+        <v>124.140557</v>
+      </c>
+      <c r="O26">
+        <v>0.2283778887323119</v>
+      </c>
+      <c r="P26">
+        <v>0.2286277002844855</v>
+      </c>
+      <c r="Q26">
+        <v>116.0077642760494</v>
+      </c>
+      <c r="R26">
+        <v>1044.069878484445</v>
+      </c>
+      <c r="S26">
+        <v>0.09753111676833198</v>
+      </c>
+      <c r="T26">
+        <v>0.09815167580688873</v>
       </c>
     </row>
   </sheetData>
